--- a/9. Test Document/TestCase.xlsx
+++ b/9. Test Document/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -361,6 +361,33 @@
   </si>
   <si>
     <t>Dữ liệu tuần 12 bị mất</t>
+  </si>
+  <si>
+    <t>FUNC_BaiHoc_TC1</t>
+  </si>
+  <si>
+    <t>Chọn bài học và hiển thị nội dung bài học</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn tuần 1 . Chọn bài học tập đọc . Chọn bài Mẹ Ốm. </t>
+  </si>
+  <si>
+    <t>Khi chọn tuần 1 , màn hình hiện ra các bài học thuộc tuần 1 : tập đọc , tập làm văn , luyện từ và câu , chính tả , kể chuyện. Sau khi chọn tập đọc thì màn hình sẽ hiện ra hai bài tập đọc : Dế mèn bênh vực kẻ yếu và bài Mẹ Ốm. Sau khi click chọn bài Mẹ Ốm thì màn hình sẽ hiện ra nội dung bài Mẹ Ốm: " Mọi hôm mẹ thích vui chơi..."</t>
+  </si>
+  <si>
+    <t>FUNC_BaiHoc_TC2</t>
+  </si>
+  <si>
+    <t>Chọn tuần 1 . Chọn bài học tập đọc . Trở lai màn hình trước đó. Chọn bài học chính tả.</t>
+  </si>
+  <si>
+    <t>Khi chọn tuần 1 , màn hình hiện ra các bài học thuộc tuần 1 : tập đọc , tập làm văn , luyện từ và câu , chính tả , kể chuyện. Sau khi chọn tập đọc thì màn hình sẽ hiện ra hai bài tập đọc : Dế mèn bênh vực kẻ yếu và bài Mẹ Ốm. Trở về màn hình trước đó , chọn bài học chính tả.</t>
+  </si>
+  <si>
+    <t>FUNC_BaiHoc_TC3</t>
+  </si>
+  <si>
+    <t>Chọn tuần học 1 . Chọn bài học chính tả. Chọn bài mẹ ốm . Trở lại màn hính chính.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -452,11 +479,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -477,19 +600,420 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H13"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="TestCase ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Chức Năng Kiểm Tra" dataDxfId="6"/>
+    <tableColumn id="3" name="Giả Định" dataDxfId="5"/>
+    <tableColumn id="4" name="Dữ Liệu Dùng Để Kiểm Tra" dataDxfId="4"/>
+    <tableColumn id="5" name="Các Bước Thực Hiện" dataDxfId="3"/>
+    <tableColumn id="6" name="Kết Quả Mong Đợi" dataDxfId="2"/>
+    <tableColumn id="7" name="Kết Quả Thực Hiện" dataDxfId="1"/>
+    <tableColumn id="8" name="Ghi Chú" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,53 +1301,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K7:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.33203125" style="2"/>
+    <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="90">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -841,15 +1365,15 @@
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="232.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -867,13 +1391,13 @@
       <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="293.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" ht="255">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -891,15 +1415,15 @@
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="191.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="153">
+      <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -917,12 +1441,13 @@
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="114.75">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -940,15 +1465,15 @@
       <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="114.75">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -966,19 +1491,97 @@
       <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="3"/>
+    <row r="8" spans="1:8" ht="102">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="89.25">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38.25">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="7" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -988,7 +1591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1000,7 +1603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9. Test Document/TestCase.xlsx
+++ b/9. Test Document/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -389,12 +389,78 @@
   <si>
     <t>Chọn tuần học 1 . Chọn bài học chính tả. Chọn bài mẹ ốm . Trở lại màn hính chính.</t>
   </si>
+  <si>
+    <t>FUNC_GiaiTri_TC1</t>
+  </si>
+  <si>
+    <t>Chọn chức năng giải trí</t>
+  </si>
+  <si>
+    <t>Chọn chức năng giải trí từ màn hình chính.</t>
+  </si>
+  <si>
+    <t>Khi chọn chức năng giải trí màn hình sẽ hiện ra các trò chơi giải trí để lựa chọn: chơi game , đố vui , nhật ký</t>
+  </si>
+  <si>
+    <t>FUNC_GiaiTri_TC2</t>
+  </si>
+  <si>
+    <t>Chọn trò chơi giải trí Đố vui</t>
+  </si>
+  <si>
+    <t>Chọn trò chơi giải trí từ màn hình chính. Chọn trò chơi Đố vui</t>
+  </si>
+  <si>
+    <t>Khi chọn trò chơi giải trí từ màn hình chính . Màn hình sẽ hiện ra các trò chơi cho mình lựa chọn : nhật ký , đố vui , chơi game. Khi chọn trò chơi đố vui , màn hình sẽ hiện ra trò chơi đố vui</t>
+  </si>
+  <si>
+    <t>FUNC_GiaiTri_TC3</t>
+  </si>
+  <si>
+    <t>Chọn trò chơi game</t>
+  </si>
+  <si>
+    <t>Chọn trò chơi giải trí từ màn hình chính. Chọn trò chơi game</t>
+  </si>
+  <si>
+    <t>Khi chọn trò chơi giải trí từ màn hình chính . Màn hình sẽ hiện ra các trò chơi cho mình lựa chọn : nhật ký , đố vui , chơi game. Khi chọn trò chơi game màn hình sẽ hiện ra trò chơi game</t>
+  </si>
+  <si>
+    <t>Chọn Nhật ký để giải trí</t>
+  </si>
+  <si>
+    <t>Chọn trò chơi giải trí từ màn hình chính. Chọn Nhật Ký</t>
+  </si>
+  <si>
+    <t>Khi chọn trò chơi giải trí từ màn hình chính . Màn hình sẽ hiện ra các trò chơi cho mình lựa chọn : nhật ký , đố vui , chơi game. Khi chọn Nhật Ký màn hình sẽ  hiện ra những gì liên quan đến Nhật Ký.</t>
+  </si>
+  <si>
+    <t>FUNC_GiaiTri_TC4</t>
+  </si>
+  <si>
+    <t>FUNC_GiaiTri_TC5</t>
+  </si>
+  <si>
+    <t>Trở lại màn hình trước đó để chọn trò giải trí khác</t>
+  </si>
+  <si>
+    <t>Chọn Giải trí từ màn hình chính. Chọn trò chơi game . Trở lại màn hính trước đó . Chọn trò đố vui để giải trí.</t>
+  </si>
+  <si>
+    <t>Khi chọn giải trí từ màn hình chính , màn hình sẽ hiện ra các trò giải trí để lựa chọn : nhật ký , chơi game , đố vui. Khi chọn trò chơi game màn hình hiện ra trò chơi game. Trở lại màn hình trước đó . Chọn trò chơi đố vui , màn hình hiện ra trò chơi đố vui.</t>
+  </si>
+  <si>
+    <t>FUNC_GiaiTri_TC6</t>
+  </si>
+  <si>
+    <t>Chọn trò chơi giải trí từ màn hình chính. Chọn trò chơi game . Trờ lại màn hình chính</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -441,6 +507,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -579,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,19 +707,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,8 +1077,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="TestCase ID" dataDxfId="7"/>
     <tableColumn id="2" name="Chức Năng Kiểm Tra" dataDxfId="6"/>
@@ -1301,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1314,7 +1391,7 @@
     <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9.28515625" style="2"/>
@@ -1346,7 +1423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="90">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="65.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="102">
+    <row r="8" spans="1:8" ht="76.5">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -1511,14 +1588,14 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="89.25">
+    <row r="9" spans="1:8" ht="63.75">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1558,23 +1635,134 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:8" ht="25.5">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:8" ht="51">
+      <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+    <row r="13" spans="1:8" ht="51">
+      <c r="A13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="51">
+      <c r="A14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="63.75">
+      <c r="A15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="38.25">
+      <c r="A16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9. Test Document/TestCase.xlsx
+++ b/9. Test Document/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -454,6 +454,63 @@
   </si>
   <si>
     <t>Chọn trò chơi giải trí từ màn hình chính. Chọn trò chơi game . Trờ lại màn hình chính</t>
+  </si>
+  <si>
+    <t>FUNC_NhatKy_TC1</t>
+  </si>
+  <si>
+    <t>Chọn Giải Trí Nhật Ký</t>
+  </si>
+  <si>
+    <t>Khi chọn chức năng giải trí từ màn hình chính . Màn hình sẽ hiện ra các trò chơi giải trí cho mình lựa chọn: nhật ký , game , đố vui. Chọn Nhật Ký. Hiện ra màn hình có liên quan đến Nhật Ký</t>
+  </si>
+  <si>
+    <t>FUNC_NhatKy_TC2</t>
+  </si>
+  <si>
+    <t>Viết nhật ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn  Giải Trí từ màn hình chính. Chọn Nhật Ký. </t>
+  </si>
+  <si>
+    <t>Khi chọn chức năng giải trí màn hình sẽ hiện ra các trò chơi giải trí để lựa chọn : chơi game , nhật ký , đố vui. Chọn Nhật ký . Màn hình hiện ra cửa số cho mình ghi pass. Nếu ghi pass đúng thì sẽ hiện ra màn hình cho mình ghi nhật ký.</t>
+  </si>
+  <si>
+    <t>FUNC_NhatKy_TC3</t>
+  </si>
+  <si>
+    <t>Lưu nhật ký</t>
+  </si>
+  <si>
+    <t>Chọn chức năng giải trí từ màn hình chính. Chọn Nhật Ký để giải trí . Ghi pass , Viết nhật ký.</t>
+  </si>
+  <si>
+    <t>Chọn chức năng giải trí từ màn hình , chọn nhật ký , ghi pass , viết nhật ký , lưu đoạn nhật ký vừa ghi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi chọn chức năng giải trí thì màn hình hiện ra dánh sách các trò giải trí: nhật ký , chơi game , đố vui. Khi chọn nhật ký thì màn hình sẽ hiện ra cửa sổ để ghi pass . Nếu ghi đúng pass , hiện ra màn hình để ghi nhật ký . Trước khi thoát khỏi nhật ký thì có thông báo lưu lại đoạn nhật ký vừa ghi hay không . </t>
+  </si>
+  <si>
+    <t>Khi chọn chức năng giải trí thì màn hình hiện ra danh sách các trò giải trí: nhật ký , chơi game , đố vui. Khi chọn nhật ký thì màn hình sẽ hiện ra cửa sổ để ghi pass . Nếu ghi đúng pass , không ghi pass , trở lại màn hình trước đó.</t>
+  </si>
+  <si>
+    <t>Trở lại màn hình trước đó</t>
+  </si>
+  <si>
+    <t>Chọn chức năng giải trí từ màn hình , chọn nhật ký , trở lại màn hình trước đó .</t>
+  </si>
+  <si>
+    <t>FUNC_NhatKy_TC4</t>
+  </si>
+  <si>
+    <t>FUNC_NhatKy_TC5</t>
+  </si>
+  <si>
+    <t>Chọn chức năng giải trí từ màn hình , chọn nhật ký , trở lại màn hình chính của phần mềm</t>
+  </si>
+  <si>
+    <t>Trở lại màn hình chính của phần mềm bất cứ lúc nào.</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H21"/>
   <tableColumns count="8">
     <tableColumn id="1" name="TestCase ID" dataDxfId="7"/>
     <tableColumn id="2" name="Chức Năng Kiểm Tra" dataDxfId="6"/>
@@ -1378,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1763,6 +1820,115 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="51">
+      <c r="A17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" ht="63.75">
+      <c r="A18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="76.5">
+      <c r="A19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" ht="63.75">
+      <c r="A20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="38.25">
+      <c r="A21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9. Test Document/TestCase.xlsx
+++ b/9. Test Document/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -511,6 +511,88 @@
   </si>
   <si>
     <t>Trở lại màn hình chính của phần mềm bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC1</t>
+  </si>
+  <si>
+    <t>Chọn tuần 5, click vào phần tập đọc.
+- Trở về trang trước.
+- Chọn tuần 35, phần tập đọc</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC2</t>
+  </si>
+  <si>
+    <t>Trả lời trắc nghiệm
+Hiển thị và thông báo kết quả</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15, chức năng tập đọc
+- Chọn câu hỏi cuối cùng.
+- Chọn đáp án c.
+- Chọn đáp án b.
+- Chọn chức năng xem kết quả.</t>
+  </si>
+  <si>
+    <t>Ở câu hỏi cuối cùng của tuần 15 phần tập đọc, chỉ được chọn một đáp án. Sau khi chọn đáp c, chọn lại đáp án b, thì đáp án c bị huỷ chọn.
+- Hiển thị kết quả là đáp án b.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC3</t>
+  </si>
+  <si>
+    <t>Qua câu hỏi kế tiếp.
+Lùi lại câu hỏi trước đó.
+Trở về màn hình chính</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15, chức năng tập đọc
+- Chọn câu hỏi trước đó.
+- Click qua câu hỏi tiếp theo.
+- Click qua câu hỏi tiếp theo.
+- Click qua câu hỏi tiếp theo.
+- Trở lại màn hình chính</t>
+  </si>
+  <si>
+    <t>Khi vừa mới chọn chức năng tập đọc của tuần 15, chức năng chọn câu hỏi trước không hiển thị vì đây là câu hỏi đầu tiên.
+- Khi click qua câu hỏi tiếp theo thì hiển thị cả 2 chức năng chọn câu hỏi trước và câu hỏi tiếp theo.
+- Khi click qua câu hỏi kế tiếp nữa thì không hiển thị chức năng chọn câu hỏi kế tiếp, vì đây là câu hỏi cuối.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC4</t>
+  </si>
+  <si>
+    <t>Hướng dẫn học</t>
+  </si>
+  <si>
+    <t>Chọn tuần 6
+- Chọn chức năng học tập đọc</t>
+  </si>
+  <si>
+    <t>Khi vừa chọn chức năng tập đọc của tuần 6, màn hình xuất hiện hướng dẫn học sinh cách thức học phần học tập đọc này.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC1</t>
+  </si>
+  <si>
+    <t>Chọn tuần 13, bài luyện từ và câu.
+- Trở lại màn hình trước
+- Chọn tuần 6, bài luyện từ và câu thứ 2</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC2</t>
+  </si>
+  <si>
+    <t>Trả lời trắc nghiệm</t>
+  </si>
+  <si>
+    <t>Khi học tập đọc tuần 5, màn hình hiển thị phần bài học tập đọc của tuần 5. cụ thể bài "Những hạt thóc giống".
+Không thể chọn phần tập đọc của tuần 35 được, vì không có dữ liệu</t>
+  </si>
+  <si>
+    <t>Khi chọn bài luyện từ và câu tuần 13, màn hình hiển thị bài học: "Mở rộng vốn từ: Ý chí - Nghị lực"
+- Chọn bài luyện từ và câu thứ 2 của tuần 6, màn hình hiển thị bài học: "Mở rộng vốn từ: Trung thực - Tự trọng".</t>
   </si>
 </sst>
 </file>
@@ -712,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -778,6 +860,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H27"/>
   <tableColumns count="8">
     <tableColumn id="1" name="TestCase ID" dataDxfId="7"/>
     <tableColumn id="2" name="Chức Năng Kiểm Tra" dataDxfId="6"/>
@@ -1435,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1929,6 +2038,134 @@
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="51">
+      <c r="A22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="63.75">
+      <c r="A23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="89.25">
+      <c r="A24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" ht="38.25">
+      <c r="A25" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" ht="63.75">
+      <c r="A26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9. Test Document/TestCase.xlsx
+++ b/9. Test Document/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="529">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -516,11 +516,6 @@
     <t>FUNC_TapDoc_TC1</t>
   </si>
   <si>
-    <t>Chọn tuần 5, click vào phần tập đọc.
-- Trở về trang trước.
-- Chọn tuần 35, phần tập đọc</t>
-  </si>
-  <si>
     <t>FUNC_TapDoc_TC2</t>
   </si>
   <si>
@@ -576,30 +571,1457 @@
     <t>FUNC_LuyenTuCau_TC1</t>
   </si>
   <si>
-    <t>Chọn tuần 13, bài luyện từ và câu.
-- Trở lại màn hình trước
-- Chọn tuần 6, bài luyện từ và câu thứ 2</t>
-  </si>
-  <si>
     <t>FUNC_LuyenTuCau_TC2</t>
   </si>
   <si>
-    <t>Trả lời trắc nghiệm</t>
-  </si>
-  <si>
-    <t>Khi học tập đọc tuần 5, màn hình hiển thị phần bài học tập đọc của tuần 5. cụ thể bài "Những hạt thóc giống".
-Không thể chọn phần tập đọc của tuần 35 được, vì không có dữ liệu</t>
-  </si>
-  <si>
-    <t>Khi chọn bài luyện từ và câu tuần 13, màn hình hiển thị bài học: "Mở rộng vốn từ: Ý chí - Nghị lực"
-- Chọn bài luyện từ và câu thứ 2 của tuần 6, màn hình hiển thị bài học: "Mở rộng vốn từ: Trung thực - Tự trọng".</t>
+    <t>Hiển thị bài học "Mẹ Ốm".</t>
+  </si>
+  <si>
+    <t>Chọn tuần 1.
+- Chọn bài tập đọc 1</t>
+  </si>
+  <si>
+    <t>Chọn tuần 1.
+- Chọn bài tập đọc 2</t>
+  </si>
+  <si>
+    <t>Chọn tuần 2.
+- Chọn bài tập đọc 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học "Dế Mèn bênh vực kẻ yếu." (tiếp theo).</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học "Dế Mèn bênh vực kẻ yếu".</t>
+  </si>
+  <si>
+    <t>Chọn tuần 2.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Truyện cổ nước mình".</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC5</t>
+  </si>
+  <si>
+    <t>Chọn tuần 3.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học "Thư thăm bạn"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC6</t>
+  </si>
+  <si>
+    <t>Chọn tuần 3.
+-Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Người ăn xin"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC7</t>
+  </si>
+  <si>
+    <t>Chọn tuần 4.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Một người chính trực".</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC8</t>
+  </si>
+  <si>
+    <t>Chọn tuần 4.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Tre Việt Nam"</t>
+  </si>
+  <si>
+    <t>Chọn tuần 5.
+Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Những hạt thóc giống".</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC9</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC10</t>
+  </si>
+  <si>
+    <t>Chọn tuần 5.
+- Chọn bài tập đọc 2</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Gà trống và Cáo"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC11</t>
+  </si>
+  <si>
+    <t>Chọn tuần 6
+- Chọn bà tập đọc 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Nỗi dằn vặt của An-đrây-ca"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC12</t>
+  </si>
+  <si>
+    <t>Chọn tuần 6.
+- Chọn bài tập đọc 2</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Chị em tôi".</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC13</t>
+  </si>
+  <si>
+    <t>Chọn tuần 7.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Trung thu độc lập"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC14</t>
+  </si>
+  <si>
+    <t>Chọn tuần 8.
+- Chọn bài tập đọc 2</t>
+  </si>
+  <si>
+    <t>Chọn tuần 7.
+- Chọn bài tập đọc 2</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Ở vương quốc Tương Lai"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC15</t>
+  </si>
+  <si>
+    <t>Chọn tuần 8.
+- Chọn bài tập đọc 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Nếu chúng mình có phép lạ".</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC16</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Đôi giày ba ta màu xanh"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC17</t>
+  </si>
+  <si>
+    <t>Chọn tuần 9.
+- Chọn bài tập đọc 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Thưa chuyện với mẹ"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC18</t>
+  </si>
+  <si>
+    <t>Chọn tuần 9.
+- Chọn bài tập đọc 2</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Điều ước của vua Mi-đát"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC19</t>
+  </si>
+  <si>
+    <t>Chọn tuần 10.
+-Chọn tiết 7</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Quê hương"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC20</t>
+  </si>
+  <si>
+    <t>Chọn tuần 11.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Ông Trạng thả diều"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC21</t>
+  </si>
+  <si>
+    <t>Chọn tuần 11.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Có chí thì nên"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC22</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Vua tàu thuỷ" Bạch Thái Bưởi.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 12.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC23</t>
+  </si>
+  <si>
+    <t>Chọn tuần 12.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Vẽ trứng".</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC24</t>
+  </si>
+  <si>
+    <t>Chọn tuần 13.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Người tìm đường lên các vì sao"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC25</t>
+  </si>
+  <si>
+    <t>Chọn tuần 13.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Văn hay chữ tốt".</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC26</t>
+  </si>
+  <si>
+    <t>Chọn tuần 14.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Chú Đất Nung"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC27</t>
+  </si>
+  <si>
+    <t>Chọn tuần 14.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Chú Đất Nung" (tiếp theo).</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC28</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Cánh diều tuổi thơ"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC29</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Tuổi Ngựa"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC30</t>
+  </si>
+  <si>
+    <t>Chọn tuần 16.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Kéo co"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC31</t>
+  </si>
+  <si>
+    <t>Chọn tuần 16.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Trong quán ăn "Ba cá bống""</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC32</t>
+  </si>
+  <si>
+    <t>Chọn tuần 17.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Rất nhiều mặt trăng"</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC33</t>
+  </si>
+  <si>
+    <t>Chọn tuần 17.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Rất nhiều mặt trăng" (tiếp theo)</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC34</t>
+  </si>
+  <si>
+    <t>Chọn tuần 18.
+-Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC35.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 18.
+-Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC36</t>
+  </si>
+  <si>
+    <t>Chọn tuần 19.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC37</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC38</t>
+  </si>
+  <si>
+    <t>Chọn tuần 20.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC39</t>
+  </si>
+  <si>
+    <t>Chọn tuần 20.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC40</t>
+  </si>
+  <si>
+    <t>Chọn tuần 21.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC41</t>
+  </si>
+  <si>
+    <t>Chọn tuần 21.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC42</t>
+  </si>
+  <si>
+    <t>Chọn tuần 22.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC43</t>
+  </si>
+  <si>
+    <t>Chọn tuần 22.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC44</t>
+  </si>
+  <si>
+    <t>Chọn tuần 23.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC45</t>
+  </si>
+  <si>
+    <t>Chọn tuần 23.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC46</t>
+  </si>
+  <si>
+    <t>Chọn tuần 24.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC47</t>
+  </si>
+  <si>
+    <t>Chọn tuần 24.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC48</t>
+  </si>
+  <si>
+    <t>Chọn tuần 25.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC49</t>
+  </si>
+  <si>
+    <t>Chọn tuần 25.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC50</t>
+  </si>
+  <si>
+    <t>Chọn tuần 26.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC51</t>
+  </si>
+  <si>
+    <t>Chọn tuần 26.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC52</t>
+  </si>
+  <si>
+    <t>Chọn tuần 27
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC53</t>
+  </si>
+  <si>
+    <t>Chọn tuần 27.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC54</t>
+  </si>
+  <si>
+    <t>Chọn tuần 28.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC55</t>
+  </si>
+  <si>
+    <t>Chọn tuần 29.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC56</t>
+  </si>
+  <si>
+    <t>Chọn tuần 28
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUCN_TapDoc_TC57</t>
+  </si>
+  <si>
+    <t>Chọn tuần 29.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC58</t>
+  </si>
+  <si>
+    <t>Chọn tuần 30.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC59</t>
+  </si>
+  <si>
+    <t>Chọn tuần 30.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC60</t>
+  </si>
+  <si>
+    <t>Chọn tuần 31.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC61</t>
+  </si>
+  <si>
+    <t>Chọn tuần 31.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC62</t>
+  </si>
+  <si>
+    <t>Chọn tuần 32.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC63</t>
+  </si>
+  <si>
+    <t>Chọn tuần 32.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC64</t>
+  </si>
+  <si>
+    <t>Chọn tuần 33.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC65</t>
+  </si>
+  <si>
+    <t>Chọn tuần 34.
+- Chọn bài tập đọc 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC66</t>
+  </si>
+  <si>
+    <t>Chọn tuần 34.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC67</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC68</t>
+  </si>
+  <si>
+    <t>Chọn tuần 35.
+- Chọn bài tập đọc 1.</t>
+  </si>
+  <si>
+    <t>Không hiển thị tuần 35, vì không có dữ liệu trong sách giáo khoa.</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC70</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC69</t>
+  </si>
+  <si>
+    <t>FUNC_TapDoc_TC71</t>
+  </si>
+  <si>
+    <t>Chọn tuần 1.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Cấu tạo của tiếng"</t>
+  </si>
+  <si>
+    <t>Chọn tuần 1.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập về cấu tạo của tiếng"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC3</t>
+  </si>
+  <si>
+    <t>Chọn tuần 2.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Mở rộng vốn từ: Nhân hậu - Đoàn kết"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC4</t>
+  </si>
+  <si>
+    <t>Chọn tuần 2.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Dấu hai chấm"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC5</t>
+  </si>
+  <si>
+    <t>Chọn tuần 3.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Từ đơn và từ phức"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC6</t>
+  </si>
+  <si>
+    <t>Chọn tuần 3.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC7</t>
+  </si>
+  <si>
+    <t>Chọn tuần 4.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Từ ghép và từ láy"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC8</t>
+  </si>
+  <si>
+    <t>Chọn tuần 4.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập về từ ghép và từ láy"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC9</t>
+  </si>
+  <si>
+    <t>Chọn tuần 5.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Mở rộng vốn từ: Trung thực - Tự trọng"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC10</t>
+  </si>
+  <si>
+    <t>Chọn tuần 5.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Danh từ"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC11</t>
+  </si>
+  <si>
+    <t>Chọn tuần 6.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Danh từ chung và danh từ riêng"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC12</t>
+  </si>
+  <si>
+    <t>Chọn tuần 6.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC13</t>
+  </si>
+  <si>
+    <t>Chọn tuần 7.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Cách viết tên người, tên địa lý Việt Nam"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC14</t>
+  </si>
+  <si>
+    <t>Chọn tuần 8.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập viết tên người, tên địa lý Việt Nam"</t>
+  </si>
+  <si>
+    <t>Chọn tuần 7.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC15</t>
+  </si>
+  <si>
+    <t>Chọn tuần 8.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Cách viết tên người, tên địa lý nước ngoài"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC16</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Dấu ngoặc kép"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC17</t>
+  </si>
+  <si>
+    <t>Chọn tuần 9.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Mở rộng vốn từ: Ước mơ"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC18</t>
+  </si>
+  <si>
+    <t>Chọn tuần 9.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Động từ"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC19</t>
+  </si>
+  <si>
+    <t>Chọn tuần 11.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập về động từ"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC20</t>
+  </si>
+  <si>
+    <t>Chọn tuần 11.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Tính từ"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC21</t>
+  </si>
+  <si>
+    <t>Chọn tuần 12.
+- Chọn bài luyện từ và câu 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Mở rộng vốn từ: Ý chí - Nghị lực"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC22</t>
+  </si>
+  <si>
+    <t>Chọn tuần 12.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Tính  từ" (tiếp theo)/</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC23</t>
+  </si>
+  <si>
+    <t>Chọn tuần 13.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC24</t>
+  </si>
+  <si>
+    <t>Chọn tuần 13.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Câu hỏi và dấu chấm hỏi"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC25</t>
+  </si>
+  <si>
+    <t>Chọn tuần 14.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập về câu hỏi"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC26</t>
+  </si>
+  <si>
+    <t>Chọn tuần 14.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Dùng câu hỏi vào mục đích khác"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC27</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Mở rộng vốn từ: Đồ chơi- Trò chơi"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC28</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Giữ phép lịch sự khi đặt câu hỏi:</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC29</t>
+  </si>
+  <si>
+    <t>Chọn tuần 16.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC30</t>
+  </si>
+  <si>
+    <t>Chọn tuần 16.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Câu kể"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC31</t>
+  </si>
+  <si>
+    <t>Chọn tuần 17.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Câu kể ai làm gì"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC32</t>
+  </si>
+  <si>
+    <t>Chọn tuần 17.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Vị ngữ trong câu kể ai làm gì?"</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC33</t>
+  </si>
+  <si>
+    <t>Chọn tuần 18.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC34</t>
+  </si>
+  <si>
+    <t>Chọn tuần 19.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC35</t>
+  </si>
+  <si>
+    <t>Chọn tuần 20.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC36</t>
+  </si>
+  <si>
+    <t>Chọn tuần 20.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC37</t>
+  </si>
+  <si>
+    <t>Chọn tuần 21.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC38</t>
+  </si>
+  <si>
+    <t>Chọn tuần 22.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC39</t>
+  </si>
+  <si>
+    <t>Chọn tuần 22.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC40</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC41</t>
+  </si>
+  <si>
+    <t>Chọn tuần 23.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC42</t>
+  </si>
+  <si>
+    <t>Chọn tuần 23.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC43</t>
+  </si>
+  <si>
+    <t>Chọn tuần 24.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC44</t>
+  </si>
+  <si>
+    <t>Chọn tuần 25.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 24.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 18.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 19.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 21.
+- chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC45</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC46</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC47</t>
+  </si>
+  <si>
+    <t>Chọn tuần 25.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC48</t>
+  </si>
+  <si>
+    <t>Chọn tuần 26.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC49</t>
+  </si>
+  <si>
+    <t>Chọn tuần 26.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC50</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC51</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC52</t>
+  </si>
+  <si>
+    <t>Chọn tuần 27.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 27
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC53</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC54</t>
+  </si>
+  <si>
+    <t>Chọn tuần 28
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC55</t>
+  </si>
+  <si>
+    <t>Chọn tuần 29
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 28.
+-Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC56</t>
+  </si>
+  <si>
+    <t>Chọn tuần 29
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC57</t>
+  </si>
+  <si>
+    <t>Chọn tuần 30.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC58</t>
+  </si>
+  <si>
+    <t>Chọn tuần 30.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC59</t>
+  </si>
+  <si>
+    <t>Chọn tuần 31.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC60</t>
+  </si>
+  <si>
+    <t>Chọn tuần 31.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC61</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC62</t>
+  </si>
+  <si>
+    <t>Chọn tuần 32.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 32.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC63</t>
+  </si>
+  <si>
+    <t>Chọn tuần 33.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC64</t>
+  </si>
+  <si>
+    <t>Chọn tuần 33.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC65</t>
+  </si>
+  <si>
+    <t>Chọn tuần 34.
+- Chọn bài luyện từ và câu 1.</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC66</t>
+  </si>
+  <si>
+    <t>FUNC_LuyenTuCau_TC67</t>
+  </si>
+  <si>
+    <t>Chọn tuần 35.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 34.
+- Chọn bài luyện từ và câu 2.</t>
+  </si>
+  <si>
+    <t>Không có bài học luyện từ và câu nào trong tuần 35, vì không có dữ liệu trong sách giáo khoa</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC1</t>
+  </si>
+  <si>
+    <t>Chọn tuần 1.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Thế nào là kể chuyện?"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC2</t>
+  </si>
+  <si>
+    <t>Chọn tuần 1.
+- Chọn bài tập làm văn 2</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Nhân vật trong chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC3</t>
+  </si>
+  <si>
+    <t>Chọn tuần 2.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Kể lại hành động của nhân vật"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC4</t>
+  </si>
+  <si>
+    <t>Chọn tuần 2.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Tả ngoại hình của nhân vật trong bài văn kể chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC5</t>
+  </si>
+  <si>
+    <t>Chọn tuần 3.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Kể lại lời nói, ý nghĩ của nhân vật"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC6</t>
+  </si>
+  <si>
+    <t>Chọn tuần 3.
+- Chọn bài tập làm văn 2</t>
+  </si>
+  <si>
+    <t>Hiển thị bài: "Viết thư"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC7</t>
+  </si>
+  <si>
+    <t>Chọn tuần 4.
+- Chọn bài tập làm văn 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài: "Cốt truyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC8</t>
+  </si>
+  <si>
+    <t>Chọn tuần 4.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập xây dựng cốt truyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC9</t>
+  </si>
+  <si>
+    <t>Chọn tuần 5.
+- Chọn bài tập làm văn 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Viết thư" (Kiểm tra viết).</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC10</t>
+  </si>
+  <si>
+    <t>Chọn tuần 5.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Đoạn văn trong bài văn kể chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC11</t>
+  </si>
+  <si>
+    <t>Chọn tuần 6.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Trả bài văn viết thư"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC12</t>
+  </si>
+  <si>
+    <t>Chọn tuần 6.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập xây dựng đoạn văn kể chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC13</t>
+  </si>
+  <si>
+    <t>Chọn tuần 7.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập xây dựng đoạn văn kể chuyện". Đọc cốt truyện: "Vào nghề"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC14</t>
+  </si>
+  <si>
+    <t>Chọn tuần 7.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập phát triển câu chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC15</t>
+  </si>
+  <si>
+    <t>Chọn tuần 8.
+- Chọn bài tập làm văn 1</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập phát triển câu chuyện".</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC16</t>
+  </si>
+  <si>
+    <t>Chọn tuần 8.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC17</t>
+  </si>
+  <si>
+    <t>Chọn tuần 9.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập phát triển câu chuyện". Đọc trích đoạn Yết Kiêu.</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC18</t>
+  </si>
+  <si>
+    <t>Chọn tuần 9.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập trao đổi ý kiến với người thân"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC19</t>
+  </si>
+  <si>
+    <t>Chọn tuần 10.
+- Chọn tiết 8. phần tập làm văn</t>
+  </si>
+  <si>
+    <t>Hiển thị đề bài: "Viết một bức thư ngắn (khoảng 10 dòng) cho bạn hoặc người thân nói về ước mơ của em"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC20</t>
+  </si>
+  <si>
+    <t>Chọn tuần 11.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Luyện tập trao đổi ý kiến với người thân". Đề bài: "Em và người thân trong gia đình cùng đọc một truyện  về một người có nghị lực…"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC21</t>
+  </si>
+  <si>
+    <t>Chọn tuần 11.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Mở bài trong bài văn kể chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC22</t>
+  </si>
+  <si>
+    <t>Chọn tuần 12.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Kết bài trong bài văn kể chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC23</t>
+  </si>
+  <si>
+    <t>Chọn tuần 12.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Kể chuyện" (kiểm tra viết).</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC24</t>
+  </si>
+  <si>
+    <t>Chọn tuần 13.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Trả bài văn kể chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC25</t>
+  </si>
+  <si>
+    <t>Chọn tuần 13.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Ôn tập văn kể chuyện"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC26.</t>
+  </si>
+  <si>
+    <t>Chọn tuần 14.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị bài học: "Thế nào là văn miêu tả?"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC27</t>
+  </si>
+  <si>
+    <t>Chọn tuần 14.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung bài học: "Cấu tạo bài văn miêu tả đồ vật"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC28</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung bài học: "Luyện tập miêu tả đồ vật"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC29</t>
+  </si>
+  <si>
+    <t>Chọn tuần 15.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung bài học: "Quan sát đồ vật"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC30</t>
+  </si>
+  <si>
+    <t>Chọn tuần 16.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung bài học: "Luyện tập giới thiệu địa phương"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC31</t>
+  </si>
+  <si>
+    <t>Chọn tuần 16.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung bài học: "Luyện tập miêu tả đồ vật" (tiếp theo). Đề bài: Tả một đồ chơi mà em thích.</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC32</t>
+  </si>
+  <si>
+    <t>Chọn tuần 17.
+- Chọn bài tập làm văn 1.</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung bài học: "Đoạn văn trong bài văn miêu tả đồ vật"</t>
+  </si>
+  <si>
+    <t>FUNC_TapLamVan_TC33</t>
+  </si>
+  <si>
+    <t>Chọn tuần 17.
+- Chọn bài tập làm văn 2.</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung bài học: "Luyện tập xây dựng đoạn văn miêu tả đồ vật"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -607,13 +2029,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -641,10 +2056,32 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10"/>
@@ -657,7 +2094,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,7 +2103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,11 +2237,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -815,18 +2255,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -834,65 +2264,167 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1092,71 +2624,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1214,15 +2681,15 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
+        <sz val="14"/>
+        <color theme="0"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1243,19 +2710,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H197" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H197"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="TestCase ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Chức Năng Kiểm Tra" dataDxfId="6"/>
-    <tableColumn id="3" name="Giả Định" dataDxfId="5"/>
-    <tableColumn id="4" name="Dữ Liệu Dùng Để Kiểm Tra" dataDxfId="4"/>
-    <tableColumn id="5" name="Các Bước Thực Hiện" dataDxfId="3"/>
-    <tableColumn id="6" name="Kết Quả Mong Đợi" dataDxfId="2"/>
-    <tableColumn id="7" name="Kết Quả Thực Hiện" dataDxfId="1"/>
-    <tableColumn id="8" name="Ghi Chú" dataDxfId="0"/>
+    <tableColumn id="1" name="TestCase ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Chức Năng Kiểm Tra" dataDxfId="1"/>
+    <tableColumn id="3" name="Giả Định" dataDxfId="7"/>
+    <tableColumn id="4" name="Dữ Liệu Dùng Để Kiểm Tra" dataDxfId="6"/>
+    <tableColumn id="5" name="Các Bước Thực Hiện" dataDxfId="5"/>
+    <tableColumn id="6" name="Kết Quả Mong Đợi" dataDxfId="4"/>
+    <tableColumn id="7" name="Kết Quả Thực Hiện" dataDxfId="3"/>
+    <tableColumn id="8" name="Ghi Chú" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1544,632 +3011,4109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" width="27.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="65.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="65.25">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="232.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="156" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="255">
-      <c r="A4" s="11" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="255">
+      <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="153">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="153">
+      <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="114.75">
-      <c r="A6" s="11" t="s">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="114.75">
+      <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="114.75">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="114.75">
+      <c r="A7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="76.5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="63.75">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="38.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="51">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="51">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="63.75">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="38.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="51">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="63.75">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="76.5">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="63.75">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="38.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="24" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5">
+      <c r="A22" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5">
+      <c r="A23" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="25.5">
+      <c r="A24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="1:8" ht="63.75">
-      <c r="A23" s="24" t="s">
+      <c r="F24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="25.5">
+      <c r="A25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="25.5">
+      <c r="A26" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="25.5">
+      <c r="A27" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="25.5">
+      <c r="A28" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="25.5">
+      <c r="A29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="25.5">
+      <c r="A30" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="25.5">
+      <c r="A31" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="25.5">
+      <c r="A32" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="25.5">
+      <c r="A33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="25.5">
+      <c r="A34" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="25.5">
+      <c r="A35" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="25.5">
+      <c r="A36" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="25.5">
+      <c r="A37" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="25.5">
+      <c r="A38" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="25.5">
+      <c r="A39" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="25.5">
+      <c r="A40" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="25.5">
+      <c r="A41" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="25.5">
+      <c r="A42" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" ht="25.5">
+      <c r="A43" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="25.5">
+      <c r="A44" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" ht="25.5">
+      <c r="A45" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" ht="25.5">
+      <c r="A46" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" ht="25.5">
+      <c r="A47" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" ht="25.5">
+      <c r="A48" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" ht="25.5">
+      <c r="A49" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" ht="25.5">
+      <c r="A50" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" ht="25.5">
+      <c r="A51" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="25.5">
+      <c r="A52" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" ht="25.5">
+      <c r="A53" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" ht="25.5">
+      <c r="A54" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" ht="25.5">
+      <c r="A55" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" ht="25.5">
+      <c r="A56" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="25.5">
+      <c r="A57" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:8" ht="25.5">
+      <c r="A58" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" ht="25.5">
+      <c r="A59" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" ht="25.5">
+      <c r="A60" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" ht="25.5">
+      <c r="A61" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" ht="25.5">
+      <c r="A62" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" ht="25.5">
+      <c r="A63" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="25.5">
+      <c r="A64" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" ht="25.5">
+      <c r="A65" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="25.5">
+      <c r="A66" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="25.5">
+      <c r="A67" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" ht="25.5">
+      <c r="A68" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" ht="25.5">
+      <c r="A69" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="1:8" ht="25.5">
+      <c r="A70" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:8" ht="25.5">
+      <c r="A71" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:8" ht="25.5">
+      <c r="A72" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="1:8" ht="25.5">
+      <c r="A73" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="1:8" ht="25.5">
+      <c r="A74" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="1:8" ht="25.5">
+      <c r="A75" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:8" ht="25.5">
+      <c r="A76" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:8" ht="25.5">
+      <c r="A77" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" ht="25.5">
+      <c r="A78" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" ht="25.5">
+      <c r="A79" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" ht="25.5">
+      <c r="A80" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="1:8" ht="25.5">
+      <c r="A81" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="1:8" ht="25.5">
+      <c r="A82" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="1:8" ht="25.5">
+      <c r="A83" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="1:8" ht="25.5">
+      <c r="A84" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="1:8" ht="25.5">
+      <c r="A85" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="1:8" ht="25.5">
+      <c r="A86" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="1:8" ht="25.5">
+      <c r="A87" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="1:8" ht="25.5">
+      <c r="A88" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:8" ht="25.5">
+      <c r="A89" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="1:8" ht="63.75">
+      <c r="A90" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="C90" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="F90" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" ht="89.25">
-      <c r="A24" s="24" t="s">
+      <c r="G90" s="17"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" ht="89.25">
+      <c r="A91" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="C91" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="F91" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="1:8" ht="38.25">
-      <c r="A25" s="24" t="s">
+      <c r="G91" s="17"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" ht="38.25">
+      <c r="A92" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="C92" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="27" t="s">
+      <c r="F92" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" ht="25.5">
+      <c r="A93" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="1:8" ht="63.75">
-      <c r="A26" s="24" t="s">
+      <c r="B93" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A94" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
+      <c r="B94" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G94" s="31"/>
+      <c r="H94" s="32"/>
+    </row>
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A95" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A96" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A97" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A98" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A99" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A100" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="9"/>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A101" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A102" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A103" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A104" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="9"/>
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A105" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A106" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A107" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A108" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A109" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A110" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A111" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A112" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="9"/>
+    </row>
+    <row r="113" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A113" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A114" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="9"/>
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A115" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="116" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A116" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="G116" s="31"/>
+      <c r="H116" s="32"/>
+    </row>
+    <row r="117" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A117" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="9"/>
+    </row>
+    <row r="118" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A118" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A119" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A120" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="9"/>
+    </row>
+    <row r="121" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A121" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A122" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G122" s="7"/>
+      <c r="H122" s="9"/>
+    </row>
+    <row r="123" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A123" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A124" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A125" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="1:8" ht="25.5">
+      <c r="A126" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A127" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="F127" s="30"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="32"/>
+    </row>
+    <row r="128" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A128" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="9"/>
+    </row>
+    <row r="129" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A129" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A130" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A131" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A132" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G132" s="7"/>
+      <c r="H132" s="9"/>
+    </row>
+    <row r="133" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A133" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G133" s="7"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A134" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A135" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G135" s="7"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A136" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A137" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G137" s="7"/>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="138" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A138" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G138" s="7"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A139" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A140" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G140" s="7"/>
+      <c r="H140" s="9"/>
+    </row>
+    <row r="141" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A141" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G141" s="7"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A142" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G142" s="7"/>
+      <c r="H142" s="9"/>
+    </row>
+    <row r="143" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A143" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="9"/>
+    </row>
+    <row r="144" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A144" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="9"/>
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A145" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G145" s="7"/>
+      <c r="H145" s="9"/>
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A146" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G146" s="7"/>
+      <c r="H146" s="9"/>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A147" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G147" s="7"/>
+      <c r="H147" s="9"/>
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A148" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G148" s="7"/>
+      <c r="H148" s="9"/>
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A149" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G149" s="7"/>
+      <c r="H149" s="9"/>
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A150" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G150" s="7"/>
+      <c r="H150" s="9"/>
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A151" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G151" s="7"/>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A152" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G152" s="7"/>
+      <c r="H152" s="9"/>
+    </row>
+    <row r="153" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A153" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G153" s="7"/>
+      <c r="H153" s="9"/>
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A154" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="9"/>
+    </row>
+    <row r="155" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A155" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G155" s="7"/>
+      <c r="H155" s="9"/>
+    </row>
+    <row r="156" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A156" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="9"/>
+    </row>
+    <row r="157" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A157" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G157" s="7"/>
+      <c r="H157" s="9"/>
+    </row>
+    <row r="158" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A158" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G158" s="7"/>
+      <c r="H158" s="9"/>
+    </row>
+    <row r="159" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A159" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G159" s="7"/>
+      <c r="H159" s="9"/>
+    </row>
+    <row r="160" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A160" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="B160" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="F160" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="G160" s="39"/>
+      <c r="H160" s="40"/>
+    </row>
+    <row r="161" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A161" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="F161" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="G161" s="39"/>
+      <c r="H161" s="40"/>
+    </row>
+    <row r="162" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A162" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="B162" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="F162" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="G162" s="39"/>
+      <c r="H162" s="40"/>
+    </row>
+    <row r="163" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A163" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B163" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="F163" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="G163" s="35"/>
+      <c r="H163" s="36"/>
+    </row>
+    <row r="164" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A164" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="F164" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="G164" s="35"/>
+      <c r="H164" s="36"/>
+    </row>
+    <row r="165" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A165" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="B165" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="F165" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="G165" s="35"/>
+      <c r="H165" s="36"/>
+    </row>
+    <row r="166" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A166" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="F166" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="G166" s="35"/>
+      <c r="H166" s="36"/>
+    </row>
+    <row r="167" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A167" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="B167" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="F167" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="G167" s="35"/>
+      <c r="H167" s="36"/>
+    </row>
+    <row r="168" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A168" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="F168" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="G168" s="35"/>
+      <c r="H168" s="36"/>
+    </row>
+    <row r="169" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A169" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="F169" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="G169" s="35"/>
+      <c r="H169" s="36"/>
+    </row>
+    <row r="170" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A170" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="F170" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="G170" s="35"/>
+      <c r="H170" s="36"/>
+    </row>
+    <row r="171" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A171" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="G171" s="35"/>
+      <c r="H171" s="36"/>
+    </row>
+    <row r="172" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A172" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="F172" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="G172" s="35"/>
+      <c r="H172" s="36"/>
+    </row>
+    <row r="173" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A173" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="F173" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="G173" s="35"/>
+      <c r="H173" s="36"/>
+    </row>
+    <row r="174" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A174" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="B174" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="F174" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="G174" s="35"/>
+      <c r="H174" s="36"/>
+    </row>
+    <row r="175" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A175" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="B175" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="F175" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="G175" s="35"/>
+      <c r="H175" s="36"/>
+    </row>
+    <row r="176" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A176" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="B176" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="F176" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="G176" s="35"/>
+      <c r="H176" s="36"/>
+    </row>
+    <row r="177" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A177" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="B177" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="F177" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="G177" s="35"/>
+      <c r="H177" s="36"/>
+    </row>
+    <row r="178" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A178" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="B178" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="G178" s="35"/>
+      <c r="H178" s="36"/>
+    </row>
+    <row r="179" spans="1:8" s="4" customFormat="1" ht="38.25">
+      <c r="A179" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="B179" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="F179" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="G179" s="39"/>
+      <c r="H179" s="40"/>
+    </row>
+    <row r="180" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A180" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B180" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="F180" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="G180" s="35"/>
+      <c r="H180" s="36"/>
+    </row>
+    <row r="181" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A181" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="B181" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="F181" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="G181" s="35"/>
+      <c r="H181" s="36"/>
+    </row>
+    <row r="182" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A182" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="F182" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="G182" s="35"/>
+      <c r="H182" s="36"/>
+    </row>
+    <row r="183" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A183" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="B183" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="G183" s="35"/>
+      <c r="H183" s="36"/>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A184" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="B184" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="F184" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="G184" s="35"/>
+      <c r="H184" s="36"/>
+    </row>
+    <row r="185" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A185" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B185" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="F185" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="G185" s="35"/>
+      <c r="H185" s="36"/>
+    </row>
+    <row r="186" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A186" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="B186" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="F186" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="G186" s="35"/>
+      <c r="H186" s="36"/>
+    </row>
+    <row r="187" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A187" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="B187" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="F187" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="G187" s="35"/>
+      <c r="H187" s="36"/>
+    </row>
+    <row r="188" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A188" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="B188" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="F188" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="G188" s="35"/>
+      <c r="H188" s="36"/>
+    </row>
+    <row r="189" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A189" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="F189" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="G189" s="35"/>
+      <c r="H189" s="36"/>
+    </row>
+    <row r="190" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A190" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="B190" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="F190" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="G190" s="35"/>
+      <c r="H190" s="36"/>
+    </row>
+    <row r="191" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A191" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="F191" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="G191" s="35"/>
+      <c r="H191" s="36"/>
+    </row>
+    <row r="192" spans="1:8" s="4" customFormat="1" ht="25.5">
+      <c r="A192" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="B192" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="F192" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="G192" s="35"/>
+      <c r="H192" s="36"/>
+    </row>
+    <row r="193" spans="1:8" s="4" customFormat="1">
+      <c r="A193" s="33"/>
+      <c r="B193" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="35"/>
+      <c r="H193" s="36"/>
+    </row>
+    <row r="194" spans="1:8" s="4" customFormat="1">
+      <c r="A194" s="33"/>
+      <c r="B194" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="36"/>
+    </row>
+    <row r="195" spans="1:8" s="4" customFormat="1">
+      <c r="A195" s="33"/>
+      <c r="B195" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="34"/>
+      <c r="F195" s="34"/>
+      <c r="G195" s="35"/>
+      <c r="H195" s="36"/>
+    </row>
+    <row r="196" spans="1:8" s="4" customFormat="1">
+      <c r="A196" s="33"/>
+      <c r="B196" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="34"/>
+      <c r="F196" s="34"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="36"/>
+    </row>
+    <row r="197" spans="1:8" s="4" customFormat="1">
+      <c r="A197" s="33"/>
+      <c r="B197" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="35"/>
+      <c r="H197" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="7" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="7" orientation="portrait" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
